--- a/maps/xtehr2zibs/DeviceUse.xlsx
+++ b/maps/xtehr2zibs/DeviceUse.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Source\mgraauw\eu-nl-compared\maps\xtehr2zibs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C19F21E3-EC89-4A01-85B3-3419F41427BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C73A185-516C-4CF0-9696-71A6DBD869AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-12585" yWindow="-21600" windowWidth="26010" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-10335" yWindow="-16875" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,152 +20,41 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="54">
-  <si>
-    <t>short</t>
-  </si>
-  <si>
-    <t>definition</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>card.</t>
-  </si>
-  <si>
-    <t>binding</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>EHDSDeviceUse</t>
   </si>
   <si>
-    <t>Device use model</t>
-  </si>
-  <si>
-    <t>C.25 - EHDS refined base model for Device Use</t>
-  </si>
-  <si>
-    <t>0..*</t>
-  </si>
-  <si>
     <t>EHDSDeviceUse.identifier</t>
   </si>
   <si>
-    <t>C.25.1 - Identifier</t>
-  </si>
-  <si>
-    <t>An identifier for this statement.</t>
-  </si>
-  <si>
-    <t>Identifier</t>
-  </si>
-  <si>
     <t>EHDSDeviceUse.status</t>
   </si>
   <si>
-    <t>C.25.2 - Status</t>
-  </si>
-  <si>
-    <t>Current status of the Device Usage.</t>
-  </si>
-  <si>
-    <t>CodeableConcept</t>
-  </si>
-  <si>
-    <t>0..1</t>
-  </si>
-  <si>
-    <t>{'strength': 'preferred', 'description': 'HL7 device-statement-status'}</t>
-  </si>
-  <si>
     <t>EHDSDeviceUse.implantDate</t>
   </si>
   <si>
-    <t>C.25.3 - Implant date</t>
-  </si>
-  <si>
-    <t>Date when procedure was performed.</t>
-  </si>
-  <si>
-    <t>dateTime</t>
-  </si>
-  <si>
     <t>EHDSDeviceUse.endDate</t>
   </si>
   <si>
-    <t>C.25.4 - End date</t>
-  </si>
-  <si>
-    <t>Date when the device was explanted from the patient or the external device was no longer in use; likewise when the device is planned to be explanted.</t>
-  </si>
-  <si>
     <t>EHDSDeviceUse.device</t>
   </si>
   <si>
-    <t>C.25.5 - Device</t>
-  </si>
-  <si>
-    <t>The details of the device used.</t>
-  </si>
-  <si>
-    <t>Reference</t>
-  </si>
-  <si>
-    <t>1..1</t>
-  </si>
-  <si>
     <t>EHDSDeviceUse.subject</t>
   </si>
   <si>
-    <t>C.25.6 - Subject</t>
-  </si>
-  <si>
-    <t>The patient using the device.</t>
-  </si>
-  <si>
     <t>EHDSDeviceUse.bodySite</t>
   </si>
   <si>
-    <t>C.25.7 - Body site</t>
-  </si>
-  <si>
-    <t>Anatomical location of the device. May include laterality.</t>
-  </si>
-  <si>
     <t>EHDSDeviceUse.note</t>
   </si>
   <si>
-    <t>C.25.8 - Note</t>
-  </si>
-  <si>
-    <t>Details about the device statement that were not represented at all or sufficiently in one of the attributes provided in a class. These may include for example a comment, an instruction, or a note associated with the statement.</t>
-  </si>
-  <si>
-    <t>Narrative</t>
-  </si>
-  <si>
     <t>EHDSDeviceUse.recorded</t>
   </si>
   <si>
-    <t>C.25.9 - Recorded</t>
-  </si>
-  <si>
-    <t>Date and time at which the statement was made/recorded.</t>
-  </si>
-  <si>
     <t>EHDSDeviceUse.source</t>
   </si>
   <si>
-    <t>C.25.10 - Source</t>
-  </si>
-  <si>
-    <t>Who reported the device was being used by the patient.</t>
-  </si>
-  <si>
-    <t>MedicalDevice.AnatomicalLocation.ProductType</t>
-  </si>
-  <si>
     <t>xtehr</t>
   </si>
   <si>
@@ -175,13 +64,37 @@
     <t>MedicalDevice</t>
   </si>
   <si>
-    <t>MedicalDevice.StartDate.ProductType</t>
-  </si>
-  <si>
-    <t>MedicalDevice.EindDatum.ProductType</t>
-  </si>
-  <si>
-    <t>MedicalDevice.Comment.ProductType</t>
+    <t>MedicalDevice.StartDate</t>
+  </si>
+  <si>
+    <t>MedicalDevice.EindDatum</t>
+  </si>
+  <si>
+    <t>MedicalDevice.AnatomicalLocation</t>
+  </si>
+  <si>
+    <t>MedicalDevice.Comment</t>
+  </si>
+  <si>
+    <t>MedicalDevice.Product.ProductID</t>
+  </si>
+  <si>
+    <t>MedicalDevice.Product.ProductType</t>
+  </si>
+  <si>
+    <t>MedicalDevice.Product</t>
+  </si>
+  <si>
+    <t>MedicalDevice.ProductDescription</t>
+  </si>
+  <si>
+    <t>MedicalDevice.Indication::Problem</t>
+  </si>
+  <si>
+    <t>MedicalDevice.Location::HealthcareProvider</t>
+  </si>
+  <si>
+    <t>MedicalDevice.HealthProfessional</t>
   </si>
 </sst>
 </file>
@@ -544,244 +457,129 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:XFD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="27" customWidth="1"/>
-    <col min="6" max="6" width="43.5703125" customWidth="1"/>
+    <col min="2" max="2" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="1" t="s">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="1" t="s">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E2" t="s">
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="F2" t="s">
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>7</v>
       </c>
-      <c r="H2" t="s">
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>9</v>
       </c>
-      <c r="E3" t="s">
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>10</v>
       </c>
-      <c r="F3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I4" t="s">
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
         <v>19</v>
       </c>
-      <c r="B5" t="s">
-        <v>51</v>
-      </c>
-      <c r="E5" t="s">
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
         <v>20</v>
       </c>
-      <c r="F5" t="s">
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
         <v>21</v>
       </c>
-      <c r="G5" t="s">
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
         <v>22</v>
       </c>
-      <c r="H5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
         <v>23</v>
       </c>
-      <c r="B6" t="s">
-        <v>52</v>
-      </c>
-      <c r="E6" t="s">
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
         <v>24</v>
-      </c>
-      <c r="F6" t="s">
-        <v>25</v>
-      </c>
-      <c r="G6" t="s">
-        <v>22</v>
-      </c>
-      <c r="H6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G7" t="s">
-        <v>29</v>
-      </c>
-      <c r="H7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" t="s">
-        <v>32</v>
-      </c>
-      <c r="F8" t="s">
-        <v>33</v>
-      </c>
-      <c r="G8" t="s">
-        <v>29</v>
-      </c>
-      <c r="H8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" t="s">
-        <v>47</v>
-      </c>
-      <c r="E9" t="s">
-        <v>35</v>
-      </c>
-      <c r="F9" t="s">
-        <v>36</v>
-      </c>
-      <c r="G9" t="s">
-        <v>16</v>
-      </c>
-      <c r="H9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>37</v>
-      </c>
-      <c r="B10" t="s">
-        <v>53</v>
-      </c>
-      <c r="E10" t="s">
-        <v>38</v>
-      </c>
-      <c r="F10" t="s">
-        <v>39</v>
-      </c>
-      <c r="G10" t="s">
-        <v>40</v>
-      </c>
-      <c r="H10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>41</v>
-      </c>
-      <c r="E11" t="s">
-        <v>42</v>
-      </c>
-      <c r="F11" t="s">
-        <v>43</v>
-      </c>
-      <c r="G11" t="s">
-        <v>22</v>
-      </c>
-      <c r="H11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>44</v>
-      </c>
-      <c r="E12" t="s">
-        <v>45</v>
-      </c>
-      <c r="F12" t="s">
-        <v>46</v>
-      </c>
-      <c r="G12" t="s">
-        <v>29</v>
-      </c>
-      <c r="H12" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
